--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1809091.914881488</v>
+        <v>1827466.604347608</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.1370054753146</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>313.9519578035932</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.88394930833825</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>25.30122190860842</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>77.75898906987746</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>43.95772706122892</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.47872210664341</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>97.81413504398192</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>292.1380595743613</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>233.1225351040573</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.3865903334043</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>148.8271244776255</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1579,16 +1579,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4552226741778</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>140.5678108961725</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.2174302415105</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8732650207026</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>60.54139430664167</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>60.54139430664167</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>73.21532344290777</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>67.9008878265364</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>190.7955476484028</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>15.0222892215842</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>111.1836666084328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.5321632999627</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>37.3243529292592</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>213.4998989363458</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>52.34452922604881</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>371.0661715209637</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1250.638474227114</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>122.7146065646829</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>122.7146065646829</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>122.7146065646829</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2519.585513306029</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>2519.585513306029</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>2494.028723499353</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>2204.611553462393</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>2204.611553462393</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y4" t="n">
-        <v>2204.611553462393</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.1113712492</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,7 +4562,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791251</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.1113712492</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.1113712492</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.1113712492</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="6">
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
         <v>789.0633827572644</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866325</v>
@@ -4738,37 +4738,37 @@
         <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600558</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942398</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124025</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W7" t="n">
-        <v>281.2479710834698</v>
+        <v>698.712065060056</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>470.7225141620387</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717208</v>
+        <v>1271.835978902612</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1271.835978902612</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>1271.835978902612</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>1271.835978902612</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>860.8500741130044</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>442.8862660111913</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791251</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2048.575150942545</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2048.575150942545</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018221</v>
+        <v>2048.575150942545</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2048.575150942545</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>1658.435818966734</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866325</v>
@@ -4975,37 +4975,37 @@
         <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600558</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600558</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600558</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600558</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="V10" t="n">
-        <v>548.3816362947775</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482713</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5078,7 +5078,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5121,13 +5121,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5197,7 +5197,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.921157035281</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.921157035281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.921157035281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.921157035281</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5276,34 +5276,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799399</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471228</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119732</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035284</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>964.1357418247896</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>964.1357418247896</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916675</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916675</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4744.160657054475</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4520.375241843982</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>4231.24660305754</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>3976.562114851653</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>3687.144944814692</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X19" t="n">
-        <v>3459.155393916675</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y19" t="n">
-        <v>3459.155393916675</v>
+        <v>1298.996260473455</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,13 +5786,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6014,10 +6014,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491545</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212476</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1323227212476</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1323227212476</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1323227212476</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>241.9570010410683</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793943</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4525.994054365623</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>4452.03918220107</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>4197.354693995183</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>3907.937523958222</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X28" t="n">
-        <v>3679.947973060205</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916675</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6446,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6488,7 +6488,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6649,22 +6649,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.064856369034</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>1209.787631771461</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6889,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.0071030383442</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C37" t="n">
-        <v>675.0071030383442</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D37" t="n">
-        <v>675.0071030383442</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>675.0071030383442</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.0071030383442</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,7 +7187,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507267</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507267</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507267</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924874</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507267</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507267</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507267</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507267</v>
+        <v>1206.530415756804</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507267</v>
+        <v>985.737836613274</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,16 +7424,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>972.2646934632137</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U43" t="n">
-        <v>972.2646934632137</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V43" t="n">
-        <v>972.2646934632137</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W43" t="n">
-        <v>972.2646934632137</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X43" t="n">
-        <v>972.2646934632137</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>972.2646934632137</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,43 +7655,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5197597634796</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7837,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.6414676374722</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142018</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.28657940933</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,22 +9720,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>77.06777566241323</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>8.047662122039867</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>23.6145499404268</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338454</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>91.26539274301206</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,10 +24178,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0405633468335</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>225.9816040299493</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>213.0220289556696</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>111.9310923554009</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>30.75201340998649</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,13 +25129,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>237.1153541022438</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>35.25029603813641</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>35.70518909861465</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>188.385302459778</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>8.04766212204342</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>96.27094379216354</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26077,16 +26077,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846865</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590215</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
@@ -26347,13 +26347,13 @@
         <v>508337.7776590214</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316168.905351438</v>
+        <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>273798.9738631065</v>
+        <v>276327.2950265486</v>
       </c>
       <c r="D6" t="n">
-        <v>273798.9738631066</v>
+        <v>276327.2950265487</v>
       </c>
       <c r="E6" t="n">
-        <v>-140147.9495568908</v>
+        <v>-138113.130318894</v>
       </c>
       <c r="F6" t="n">
-        <v>385012.0869200059</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="G6" t="n">
-        <v>385012.0869200056</v>
+        <v>387046.9061580029</v>
       </c>
       <c r="H6" t="n">
-        <v>385012.0869200056</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="I6" t="n">
-        <v>385012.0869200059</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="J6" t="n">
-        <v>208588.8677274128</v>
+        <v>210623.6869654098</v>
       </c>
       <c r="K6" t="n">
-        <v>385012.086920006</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="L6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="M6" t="n">
-        <v>250211.0716861683</v>
+        <v>252245.8909241651</v>
       </c>
       <c r="N6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580024</v>
       </c>
       <c r="O6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="P6" t="n">
-        <v>385012.0869200059</v>
+        <v>387046.9061580024</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.596836188166</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.83221221720174</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>144.4258529507127</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>226.8364214152196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>287.5139027011301</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10.52067551358284</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>170.5563833514409</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>120.7705183081129</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>62.54498204632165</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>90.80023766029984</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>83.64851512467999</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>103.3105188462025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31282,7 +31282,7 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727435</v>
@@ -31297,10 +31297,10 @@
         <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954665</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649101</v>
@@ -31382,13 +31382,13 @@
         <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246923</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701162</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727435</v>
@@ -31534,10 +31534,10 @@
         <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954665</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649101</v>
@@ -31619,13 +31619,13 @@
         <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246923</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701162</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898688</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031297</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898688</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>486.0228424856238</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35808,7 +35808,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.214186879932</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37628,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>567.6062243483286</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1827466.604347608</v>
+        <v>1902996.274012414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>313.9519578035932</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>131.3860283451312</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22.88394930833825</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>357.9656776746629</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.95772706122892</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.81413504398192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>401.5176349024138</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>233.1225351040573</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>141.3865903334043</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>89.83938363460571</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>74.66728948354429</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>140.5678108961725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.6864005999552</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.2174302415105</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>153.380899675072</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>128.4285848360769</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>60.54139430664167</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>60.54139430664167</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.9008878265364</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>276.7609407044663</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>49.65580737697969</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15.0222892215842</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>155.8385935972305</v>
+        <v>24.82503247366799</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>37.3243529292592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>157.2425576766694</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>52.34452922604881</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.106027515566</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1167.840328908816</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>782.0520763105712</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>371.0661715209637</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="3">
@@ -4407,7 +4409,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>122.7146065646829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7146065646829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7146065646829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770186</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770186</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1160.683002486844</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1160.683002486844</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1160.683002486844</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2476.569858826099</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.712065060056</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>698.712065060056</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>698.712065060056</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V7" t="n">
-        <v>698.712065060056</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W7" t="n">
-        <v>698.712065060056</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620387</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.9203575519559</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.835978902612</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.835978902612</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.835978902612</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="E8" t="n">
-        <v>1271.835978902612</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="F8" t="n">
-        <v>860.8500741130044</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>442.8862660111913</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332391</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304454</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942545</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942545</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942545</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942545</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1658.435818966734</v>
+        <v>1744.740694543504</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482713</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036442</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036442</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.982325640618</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587807</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>222.8791647482713</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>222.8791647482713</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482713</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482713</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482713</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482713</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>638.121873619265</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>638.121873619265</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>491.2319261213546</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>323.0566044411752</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>172.6385959891185</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5272,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,13 +5302,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247896</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>964.1357418247896</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799399</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471228</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119732</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035284</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247896</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247896</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247896</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247896</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247896</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247896</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632138</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>822.148054050878</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X19" t="n">
-        <v>1298.996260473455</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>1298.996260473455</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5795,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>634.0455001582206</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>359.1696912903951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6218,7 +6220,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324574</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.3226148324574</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6451,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632138</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D31" t="n">
-        <v>822.148054050878</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684849</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6652,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1219.359764795815</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>964.6752765899282</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.787631771461</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.787631771461</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>4208.336137767206</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4810.697191825423</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="V34" t="n">
-        <v>1194.613602254709</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.613602254709</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="X34" t="n">
-        <v>966.6240513566914</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>4389.984602597446</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.4856756861153</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5494927582084</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4328533458727</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="E37" t="n">
-        <v>401.5197597634796</v>
+        <v>122.2928818377283</v>
       </c>
       <c r="F37" t="n">
-        <v>254.6298122655692</v>
+        <v>122.2928818377283</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7199,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>804.0893717830343</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>804.0893717830343</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>653.9727323706985</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.231782352015</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.530415756804</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.737836613274</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665167</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1340.085404217832</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1050.956765431391</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7634,22 +7636,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7667,31 +7669,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
         <v>1247.466478653857</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747218</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>52.49733361305232</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>223.6742649934469</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>234.4116509503157</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11382,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.7519559807277</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>77.06777566241323</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.047662122039867</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>146.4512427238728</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.6145499404268</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>133.142098661519</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>51.40339534586045</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>225.9816040299493</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>105.9521741567359</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9310923554009</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>9.476411694110993</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>60.30854502681311</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>237.1153541022438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>10.65497486614709</v>
+        <v>141.6685359897096</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>95.22770912022229</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25606,13 +25608,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>188.385302459778</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>64.30500338171987</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>96.27094379216354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846865</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590214</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26436,22 +26438,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="J4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230233</v>
-      </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26470,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265486</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265487</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="E6" t="n">
-        <v>-138113.130318894</v>
+        <v>-138113.1303188933</v>
       </c>
       <c r="F6" t="n">
+        <v>387046.9061580029</v>
+      </c>
+      <c r="G6" t="n">
         <v>387046.9061580027</v>
       </c>
-      <c r="G6" t="n">
-        <v>387046.9061580029</v>
-      </c>
       <c r="H6" t="n">
-        <v>387046.9061580026</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580027</v>
+        <v>387046.9061580023</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.6869654098</v>
+        <v>210623.6869654096</v>
       </c>
       <c r="K6" t="n">
-        <v>387046.9061580026</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="L6" t="n">
         <v>387046.9061580027</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241651</v>
+        <v>252245.8909241653</v>
       </c>
       <c r="N6" t="n">
-        <v>387046.9061580024</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="O6" t="n">
-        <v>387046.9061580027</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580024</v>
+        <v>387046.9061580026</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.83221221720174</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>119.8381391631581</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4258529507127</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>48.91036806704858</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.52067551358284</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>39.93800096663895</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.7705183081129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.358410839297619</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>90.80023766029984</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.64851512467999</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>162.2982596892223</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29758,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.214186879932</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813863</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>567.6062243483286</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1902996.274012414</v>
+        <v>1895979.259120704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>99.26910946537664</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>131.3860283451312</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>357.9656776746629</v>
+        <v>22.31670096586947</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.8939792152983</v>
+        <v>176.0251356438853</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>401.5176349024138</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>25.60281064416403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>89.83938363460571</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.65811021293056</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>74.66728948354429</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
-        <v>105.6864005999552</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>153.380899675072</v>
+        <v>190.542040806566</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.4285848360769</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>81.21003188889038</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836072</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>112.481959611573</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056524</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>276.7609407044663</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.65580737697969</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.82503247366799</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2509.407241604139</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2509.407241604139</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2509.407241604139</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.941483343059</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.645519427256</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.683002486844</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.683002486844</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E5" t="n">
-        <v>1160.683002486844</v>
+        <v>975.109608078832</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>195.250031532787</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>195.250031532787</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>195.250031532787</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>195.250031532787</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.250031532787</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.140854479382</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.140854479382</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1358.140854479382</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>1358.140854479382</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543504</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>702.2675593133392</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>702.2675593133392</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.0580565471719</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>638.121873619265</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>638.121873619265</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>638.121873619265</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>491.2319261213546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>323.0566044411752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>172.6385959891185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.7065213774116</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
         <v>1528.62340110598</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>879.2482765610114</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>879.2482765610114</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>879.2482765610114</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.2482765610114</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>265.3924131404652</v>
+        <v>1306.449562672482</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404652</v>
+        <v>1078.460011774465</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>857.6674326309349</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5746,25 +5746,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
         <v>527.3450129705744</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>1270.926719659885</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6059,37 +6059,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582206</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646848</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1185.37811945166</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>896.249480665218</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>896.249480665218</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>896.249480665218</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>896.249480665218</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.020508932908</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>3893.336020727022</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>3603.918850690061</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1219.359764795815</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>964.6752765899282</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>675.2581065529675</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4208.336137767206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4039.399954839299</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4810.697191825423</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4610.777181740976</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4610.777181740976</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4610.777181740976</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4610.777181740976</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4610.777181740976</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4610.777181740976</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4389.984602597446</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>122.2928818377283</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>122.2928818377283</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7177,7 +7177,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1484.03077229167</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.03077229167</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.03077229167</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W40" t="n">
-        <v>1194.613602254709</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X40" t="n">
-        <v>966.6240513566914</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131613</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814756</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6742649934469</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.1738699690067</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>35.7519559807277</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
-        <v>146.4512427238728</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>133.142098661519</v>
+        <v>95.98095753002502</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.40339534586045</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>170.9276114349376</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>109.0656014468162</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.3938331833848</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>9.476411694110993</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.30854502681311</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.6685359897096</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>95.22770912022229</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846861</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590216</v>
@@ -26343,19 +26343,19 @@
         <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="N2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26441,22 +26441,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265488</v>
+        <v>276327.295026549</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265488</v>
+        <v>276327.2950265489</v>
       </c>
       <c r="E6" t="n">
-        <v>-138113.1303188933</v>
+        <v>-139087.721578615</v>
       </c>
       <c r="F6" t="n">
-        <v>387046.9061580029</v>
+        <v>386072.3148982811</v>
       </c>
       <c r="G6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982808</v>
       </c>
       <c r="H6" t="n">
-        <v>387046.9061580028</v>
+        <v>386072.314898281</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580023</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.6869654096</v>
+        <v>209649.0957056879</v>
       </c>
       <c r="K6" t="n">
-        <v>387046.9061580028</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="L6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241653</v>
+        <v>251271.2996644439</v>
       </c>
       <c r="N6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982808</v>
       </c>
       <c r="O6" t="n">
-        <v>387046.9061580028</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982808</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>307.6069362763348</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>119.8381391631581</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>48.91036806704858</v>
+        <v>384.559344775842</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.93800096663895</v>
+        <v>3.806844538051962</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5.358410839297619</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.519939310750278</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>162.2982596892223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29246,7 +29246,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>374.2497035813863</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1895979.259120704</v>
+        <v>1900918.521969735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.26910946537664</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>22.31670096586947</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.0251356438853</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>125.8721928563316</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.316839791337078</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.60281064416403</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.65811021293056</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>190.542040806566</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>225.4009168789489</v>
       </c>
       <c r="V22" t="n">
-        <v>81.21003188889038</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836072</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>112.481959611573</v>
+        <v>198.3698148006631</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>215.7053919670787</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>188.4590648403943</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>15.75208669539955</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.432846268137</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>725.6445936698926</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4467,25 +4467,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685582</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>975.109608078832</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>975.109608078832</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>808.38725284885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>397.4013480592425</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>383.4779439978334</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>56.28322403383623</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>702.2675593133392</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>702.2675593133392</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.2675593133392</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>702.2675593133392</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>702.2675593133392</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>702.2675593133392</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.2675593133392</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5238,13 +5238,13 @@
         <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>527.1935825831087</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.4010034395785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1306.449562672482</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>1078.460011774465</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.6674326309349</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="V22" t="n">
-        <v>816.762183007535</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6013,19 +6013,19 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.6010158349783</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>545.6648329070714</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473451</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1185.37811945166</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U25" t="n">
-        <v>896.249480665218</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V25" t="n">
-        <v>896.249480665218</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W25" t="n">
-        <v>896.249480665218</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X25" t="n">
-        <v>896.249480665218</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>896.249480665218</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,19 +6214,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6320,7 +6320,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6557,7 +6557,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1281.032036247722</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>991.90339746128</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7031,7 +7031,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1019.424940013486</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>764.7404518075996</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>475.3232817706389</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>247.3337308726216</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.3337308726216</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7505,7 +7505,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,43 +7633,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7742,7 +7742,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.1738699690067</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>95.98095753002502</v>
+        <v>262.225813365323</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>60.83643551962842</v>
       </c>
       <c r="V22" t="n">
-        <v>170.9276114349376</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>109.0656014468162</v>
+        <v>23.17774625772617</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642759</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>5.842169091310524</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>33.08849621799493</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>209.9575686936376</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846861</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846861</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117846</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="O2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,22 +26441,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26484,22 +26484,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313640.5841879958</v>
+        <v>-313640.584187996</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.295026549</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265489</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="E6" t="n">
-        <v>-139087.721578615</v>
+        <v>-138210.5894448656</v>
       </c>
       <c r="F6" t="n">
-        <v>386072.3148982811</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="G6" t="n">
-        <v>386072.3148982808</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="H6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="I6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320306</v>
       </c>
       <c r="J6" t="n">
-        <v>209649.0957056879</v>
+        <v>210526.2278394377</v>
       </c>
       <c r="K6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320306</v>
       </c>
       <c r="L6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="M6" t="n">
-        <v>251271.2996644439</v>
+        <v>252148.4317981934</v>
       </c>
       <c r="N6" t="n">
-        <v>386072.3148982808</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="O6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320306</v>
       </c>
       <c r="P6" t="n">
-        <v>386072.3148982808</v>
+        <v>386949.4470320305</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.6069362763348</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>384.559344775842</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.806844538051962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>160.6508054802594</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>149.6144764535242</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.519939310750278</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29246,7 +29246,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29690,7 +29690,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-2.384450055216938e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M39" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
